--- a/ocms/src/test/resources/DownloadedFiles/TMACConsultTransfer.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/TMACConsultTransfer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -34,19 +34,103 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">DeptPalak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bengteth\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 16:43:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 16:43:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 16:44:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept aravind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 16:44:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept Santosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 16:45:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 16:45:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 16:46:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoreJava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">432222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 17:40:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoreJavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2019 17:41:25</t>
+  </si>
+  <si>
     <t xml:space="preserve">June</t>
   </si>
   <si>
     <t xml:space="preserve">50004</t>
   </si>
   <si>
-    <t xml:space="preserve">Voice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bengteth\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/09/2019 20:34:14</t>
+    <t xml:space="preserve">21/10/2019 19:16:48</t>
   </si>
   <si>
     <t xml:space="preserve">Adam</t>
@@ -55,10 +139,7 @@
     <t xml:space="preserve">50002</t>
   </si>
   <si>
-    <t xml:space="preserve">Chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/09/2019 20:32:21</t>
+    <t xml:space="preserve">21/10/2019 19:15:20</t>
   </si>
 </sst>
 </file>
@@ -123,15 +204,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
+  <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="4.714285714285714" bestFit="1"/>
+    <col min="1" max="1" customWidth="1" width="14.714285714285714" bestFit="1"/>
     <col min="2" max="2" customWidth="1" width="15.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="5.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="22.714285714285715" bestFit="1"/>
@@ -189,6 +270,159 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/DownloadedFiles/TMACConsultTransfer.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/TMACConsultTransfer.xlsx
@@ -130,7 +130,7 @@
     <t xml:space="preserve">50005</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2019 18:19:41</t>
+    <t xml:space="preserve">11/11/2019 13:38:27</t>
   </si>
   <si>
     <t xml:space="preserve">Adam</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">50001</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2019 18:18:53</t>
+    <t xml:space="preserve">11/11/2019 13:35:46</t>
   </si>
 </sst>
 </file>
